--- a/prototypes/E5分销系统收益规则.xlsx
+++ b/prototypes/E5分销系统收益规则.xlsx
@@ -709,12 +709,12 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B12" sqref="B12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/prototypes/E5分销系统收益规则.xlsx
+++ b/prototypes/E5分销系统收益规则.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,26 @@
   </si>
   <si>
     <t>收益参考值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金生息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用佣金支付定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用基金支付定金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -368,35 +388,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,35 +748,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1148,17 +1170,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1230,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1243,31 +1265,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1401,6 +1423,50 @@
       <c r="J7" s="10"/>
       <c r="K7" s="11">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/prototypes/E5分销系统收益规则.xlsx
+++ b/prototypes/E5分销系统收益规则.xlsx
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
